--- a/texts/2.3.4.xlsx
+++ b/texts/2.3.4.xlsx
@@ -1,21 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FB1D71-B9CD-485C-A5CD-91D1957D15A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="984" yWindow="0" windowWidth="17292" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ハフマン木のイメージ1" sheetId="2" r:id="rId1"/>
-    <sheet name="ハフマン木のイメージ2" sheetId="1" r:id="rId2"/>
+    <sheet name="ハフマン符号木のイメージ1" sheetId="2" r:id="rId1"/>
+    <sheet name="ハフマン符号木のイメージ2" sheetId="1" r:id="rId2"/>
+    <sheet name="ハフマン符号木の生成" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>A</t>
     <phoneticPr fontId="1"/>
@@ -124,11 +138,58 @@
     <t>C</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>(('A 8) ('B 3) ('C 1) ('D 1) ('E 1) ('F 1) ('G 1) ('H 1))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(('leaf  'H 1) ('leaf  'G 1) ('leaf  'F 1) ('leaf  'E 1) ('leaf  'D 1) ('leaf  'C 1) ('leaf  'B 3) ('leaf  'A 8))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>make-leaf-set手続き</t>
+    <rPh sb="13" eb="15">
+      <t>テツヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(('leaf  'F 1) ('leaf  'E 1) ('leaf  'D 1) ('leaf  'C 1) (L R  ('G 'H) 2)  ('leaf  'B 3) ('leaf  'A 8))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(('leaf  'D 1) ('leaf  'C 1) (L R  ('H 'G) 2) (L R  ('F 'E) 2) ('leaf  'B 3) ('leaf  'A 8))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((L R  ('H 'G) 2) (L R  ('F 'E) 2) (L R  ('D 'C) 2) ('leaf  'B 3) ('leaf  'A 8))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((L R  ('D 'C) 2) ('leaf  'B 3) (L R  ('H 'G 'F 'E) 4)  ('leaf  'A 8))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((L R  ('H 'G 'F 'E) 4)  (L R  ('D 'C 'B) 5) ('leaf  'A 8))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(('leaf  'A 8) (L R  ('H 'G 'F 'E 'D 'C 'B) 9))</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>((L R  ('A 'H 'G 'F 'E 'D 'C 'B) 17))</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -201,6 +262,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -230,7 +292,13 @@
     <xdr:ext cx="792781" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -287,7 +355,13 @@
     <xdr:ext cx="369653" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -344,7 +418,13 @@
     <xdr:ext cx="364780" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -397,7 +477,13 @@
     <xdr:ext cx="374846" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -450,7 +536,13 @@
     <xdr:ext cx="374846" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 5"/>
+        <xdr:cNvPr id="6" name="テキスト ボックス 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -503,7 +595,13 @@
     <xdr:ext cx="679289" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -560,7 +658,13 @@
     <xdr:ext cx="570669" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="テキスト ボックス 7"/>
+        <xdr:cNvPr id="8" name="テキスト ボックス 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -622,7 +726,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="円/楕円 8"/>
+        <xdr:cNvPr id="9" name="円/楕円 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -676,7 +786,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="直線コネクタ 9"/>
+        <xdr:cNvPr id="10" name="直線コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -725,7 +841,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="円/楕円 13"/>
+        <xdr:cNvPr id="14" name="円/楕円 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -779,7 +901,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="直線コネクタ 14"/>
+        <xdr:cNvPr id="15" name="直線コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="9" idx="5"/>
           <a:endCxn id="14" idx="1"/>
@@ -831,7 +959,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="円/楕円 19"/>
+        <xdr:cNvPr id="20" name="円/楕円 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -885,7 +1019,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線コネクタ 24"/>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -934,7 +1074,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="直線コネクタ 25"/>
+        <xdr:cNvPr id="26" name="直線コネクタ 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -983,7 +1129,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="直線コネクタ 29"/>
+        <xdr:cNvPr id="30" name="直線コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1032,7 +1184,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="直線コネクタ 30"/>
+        <xdr:cNvPr id="31" name="直線コネクタ 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1086,7 +1244,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1143,7 +1307,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1200,7 +1370,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1257,7 +1433,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1314,7 +1496,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1371,7 +1559,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1428,7 +1622,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1485,7 +1685,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1590,7 +1796,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1647,7 +1859,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1704,7 +1922,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1761,7 +1985,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1818,7 +2048,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1875,7 +2111,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1932,7 +2174,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2037,7 +2285,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2094,7 +2348,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2151,7 +2411,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2208,7 +2474,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="直線コネクタ 23"/>
+        <xdr:cNvPr id="24" name="直線コネクタ 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="13" idx="2"/>
           <a:endCxn id="17" idx="0"/>
@@ -2260,7 +2532,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="直線コネクタ 24"/>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="2"/>
           <a:endCxn id="20" idx="0"/>
@@ -2312,7 +2590,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2385,7 +2669,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2468,7 +2758,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2525,7 +2821,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36"/>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2582,7 +2884,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2639,7 +2947,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="正方形/長方形 38"/>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2706,7 +3020,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="正方形/長方形 39"/>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2763,7 +3083,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2820,7 +3146,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41"/>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2903,7 +3235,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42"/>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2960,7 +3298,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3017,7 +3361,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="正方形/長方形 44"/>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3100,7 +3450,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3157,7 +3513,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直線コネクタ 46"/>
+        <xdr:cNvPr id="47" name="直線コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="20" idx="2"/>
           <a:endCxn id="39" idx="0"/>
@@ -3209,7 +3571,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線コネクタ 49"/>
+        <xdr:cNvPr id="50" name="直線コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="21" idx="2"/>
           <a:endCxn id="35" idx="0"/>
@@ -3261,7 +3629,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直線コネクタ 52"/>
+        <xdr:cNvPr id="53" name="直線コネクタ 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="35" idx="2"/>
           <a:endCxn id="42" idx="0"/>
@@ -3313,7 +3687,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="57" name="直線コネクタ 56"/>
+        <xdr:cNvPr id="57" name="直線コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="36" idx="2"/>
           <a:endCxn id="45" idx="0"/>
@@ -3360,7 +3740,13 @@
     <xdr:ext cx="792781" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="テキスト ボックス 59"/>
+        <xdr:cNvPr id="60" name="テキスト ボックス 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3433,7 +3819,13 @@
     <xdr:ext cx="369653" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="テキスト ボックス 60"/>
+        <xdr:cNvPr id="61" name="テキスト ボックス 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3490,7 +3882,13 @@
     <xdr:ext cx="364780" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="テキスト ボックス 61"/>
+        <xdr:cNvPr id="62" name="テキスト ボックス 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3543,7 +3941,13 @@
     <xdr:ext cx="374846" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="テキスト ボックス 62"/>
+        <xdr:cNvPr id="63" name="テキスト ボックス 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3596,7 +4000,13 @@
     <xdr:ext cx="374846" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="テキスト ボックス 63"/>
+        <xdr:cNvPr id="64" name="テキスト ボックス 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3649,7 +4059,13 @@
     <xdr:ext cx="711157" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="テキスト ボックス 64"/>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3722,7 +4138,13 @@
     <xdr:ext cx="570669" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="テキスト ボックス 65"/>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3860,6 +4282,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3895,6 +4334,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4070,19 +4526,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>ハフマン木のイメージ1</v>
+        <v>ハフマン符号木のイメージ1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4148,7 +4604,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D6:E9" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -4157,19 +4613,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="16.2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
-        <v>ハフマン木のイメージ2</v>
+        <v>ハフマン符号木のイメージ2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -4250,10 +4704,122 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D20:D23 E20:E21 E22:E23" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED226AE-1B6B-4A92-BF0F-C9DE4316BB53}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="str">
+        <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
+        <v>ハフマン符号木の生成</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>